--- a/biology/Zoologie/Ermite_de_Rucker/Ermite_de_Rucker.xlsx
+++ b/biology/Zoologie/Ermite_de_Rucker/Ermite_de_Rucker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Threnetes ruckeri
 L'Ermite de Rucker (Threnetes ruckeri), anciennement Ermite de Rücker, est une espèce de colibris (famille des Trochilidae).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ermite de Rucker a le dessus vert-bronze métallique ou verdâtre, plus terne sur le haut de la tête où les plumes sont étroitement bordées et striées de sombre. Le dessus de la couverture caudale à l'extrémité cannelle pâle ou de chamois grisâtre pâle bordée par une fine ligne courbe sombre. La paire médiane des rectrices est vert-bronze avec une pointe blanche terne ou chamois pâle, les autres rectrices sont blanches sur la partie inférieure et noires sur la partie supérieure, avec l'extérieur bordé de plumes vert-bronze avec une pointe blanche ou chamois pâle. Les rémiges sont sombres légèrement teintées de violacée. Les régions suborbitale et auriculaire sont brun-noirâtre ou sombre, bordées au-dessus d'une tache post-oculaire ou d'une courte bande cannelle pâle ou chamois, et au-dessous d'une bande malaire de la même couleur. Le menton et le haut de la gorge sont sombres, les plumes bordées ou pointées de chamois-grisâtre ou cannelle pâle. Le bas de la gorge et le haut de la poitrine sont cannelle-roux évoluant progressivement en gris pâle chamoisé sur le bas de la poitrine et l'abdomen (teinté de cannelle-roux). Les flancs sont gris-chamois profond plus ou moins teintés de cannelle-roux pâle. Le dessous de la couverture caudale est olive-bronze largement marbré de cannelle ou de cannelle-chamois. Le bec est noir sombre avec le dessous blanchâtre, les pattes sont brun pâle ou jaunâtre terne et l'œil est marron foncé.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est présent au Belize, en Colombie, au Costa Rica, en Équateur, au Guatemala, au Honduras, au Nicaragua, au Panama et au Venezuela.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales humides de basses et hautes altitudes, les forêts humides de broussailles mais aussi les anciennes forêts fortement dégradées et les plantations agricoles.
 </t>
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 10.1, 2020) du Congrès ornithologique international, cette espèce est constituée des trois sous-espèces suivantes (ordre phylogénique) :
 Threnetes ruckeri ruckeri (Bourcier, 1847) ;
